--- a/XZDHospital2BMS/XZDHospital2BMS/Excel/Template/02出库单.xlsx
+++ b/XZDHospital2BMS/XZDHospital2BMS/Excel/Template/02出库单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="21555" windowHeight="9630"/>
@@ -16,69 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>骨科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  2019   12   30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>帽子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1122.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>455.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7677.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信州区第二人民医院</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>&amp;=$NameUnit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=$DateShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=$NameDepartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].name_product</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=[DataTable].price_unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,11 +130,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -236,6 +213,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +248,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +424,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -463,19 +442,19 @@
     <col min="7" max="7" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="9.75" customHeight="1">
+    <row r="1" spans="1:8" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C1" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
       <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -483,52 +462,27 @@
       <c r="E2" s="4"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="24.75" customHeight="1"/>
-    <row r="4" spans="1:8" ht="23.25" customHeight="1"/>
-    <row r="5" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="8" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1"/>
-    <row r="15" spans="1:8">
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="G15" s="2"/>
     </row>
   </sheetData>
@@ -544,12 +498,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -557,12 +511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
